--- a/__idea/0803/新老服务器列表.xlsx
+++ b/__idea/0803/新老服务器列表.xlsx
@@ -306,18 +306,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -361,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,25 +365,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -705,11 +693,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -736,7 +724,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -792,7 +780,7 @@
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
@@ -803,7 +791,7 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="s">
@@ -812,7 +800,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="3"/>
       <c r="E8" t="s">
         <v>13</v>
       </c>
@@ -870,7 +858,7 @@
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="s">
@@ -886,7 +874,7 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
+      <c r="A16" s="4"/>
       <c r="E16" t="s">
         <v>29</v>
       </c>
@@ -958,7 +946,7 @@
       </c>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E23" t="s">
@@ -985,7 +973,7 @@
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E26" t="s">
@@ -996,7 +984,7 @@
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E27" t="s">
@@ -1004,8 +992,8 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
       <c r="E28" t="s">
         <v>55</v>
       </c>
@@ -1055,10 +1043,10 @@
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" spans="1:5">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E33" t="s">
@@ -1066,10 +1054,10 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>55</v>
       </c>
       <c r="E34" t="s">
@@ -1077,8 +1065,8 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="7"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="3"/>
       <c r="E35" t="s">
         <v>70</v>
       </c>
@@ -1122,18 +1110,18 @@
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="4"/>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="5" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1146,18 +1134,18 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>74</v>
       </c>
     </row>
